--- a/data/Morta_Femme_France.xlsx
+++ b/data/Morta_Femme_France.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,7 +380,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>px.x</t>
+          <t>px</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -395,42 +395,77 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>px.y</t>
+          <t>ix</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ix</t>
+          <t>n</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>ax</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ax</t>
+          <t>lx</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>lx</t>
+          <t>Lx</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Lx</t>
+          <t>Tx</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Tx</t>
+          <t>ex</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>ex</t>
+          <t>ILx</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>DLx</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>DFLx</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>DTx</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>DFTx</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>DFLEx</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>DLEx</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>DFLE_pct</t>
         </is>
       </c>
     </row>
@@ -459,28 +494,49 @@
         <v>0.00421</v>
       </c>
       <c r="H2">
-        <v>0.99579</v>
+        <v>0.005937147678675741</v>
       </c>
       <c r="I2">
-        <v>0.005937147678675741</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K2">
-        <v>0.5</v>
+        <v>100000</v>
       </c>
       <c r="L2">
-        <v>100000</v>
+        <v>99789.5</v>
       </c>
       <c r="M2">
-        <v>99789.5</v>
+        <v>2839950.187035784</v>
       </c>
       <c r="N2">
-        <v>2839950.187035784</v>
+        <v>28.39950187035784</v>
       </c>
       <c r="O2">
-        <v>28.39950187035784</v>
+        <v>592.4649982812128</v>
+      </c>
+      <c r="P2">
+        <v>25404.09891856758</v>
+      </c>
+      <c r="Q2">
+        <v>74385.40108143241</v>
+      </c>
+      <c r="R2">
+        <v>1218603.046215007</v>
+      </c>
+      <c r="S2">
+        <v>1621347.140820777</v>
+      </c>
+      <c r="T2">
+        <v>16.21347140820777</v>
+      </c>
+      <c r="U2">
+        <v>12.18603046215007</v>
+      </c>
+      <c r="V2">
+        <v>57.1</v>
       </c>
     </row>
     <row r="3">
@@ -508,28 +564,49 @@
         <v>0.00469</v>
       </c>
       <c r="H3">
-        <v>0.99531</v>
+        <v>0.005937147678675741</v>
       </c>
       <c r="I3">
-        <v>0.005937147678675741</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K3">
-        <v>0.5</v>
+        <v>99579</v>
       </c>
       <c r="L3">
-        <v>99579</v>
+        <v>99345.487245</v>
       </c>
       <c r="M3">
-        <v>99345.487245</v>
+        <v>2740160.687035784</v>
       </c>
       <c r="N3">
-        <v>2740160.687035784</v>
+        <v>27.51745535741255</v>
       </c>
       <c r="O3">
-        <v>27.51745535741255</v>
+        <v>589.8288289835622</v>
+      </c>
+      <c r="P3">
+        <v>23952.39347916676</v>
+      </c>
+      <c r="Q3">
+        <v>75393.09376583324</v>
+      </c>
+      <c r="R3">
+        <v>1193198.947296439</v>
+      </c>
+      <c r="S3">
+        <v>1546961.739739345</v>
+      </c>
+      <c r="T3">
+        <v>15.53501983088146</v>
+      </c>
+      <c r="U3">
+        <v>11.98243552653109</v>
+      </c>
+      <c r="V3">
+        <v>56.5</v>
       </c>
     </row>
     <row r="4">
@@ -557,28 +634,49 @@
         <v>0.00491</v>
       </c>
       <c r="H4">
-        <v>0.99509</v>
+        <v>0.005937147678675741</v>
       </c>
       <c r="I4">
-        <v>0.005937147678675741</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K4">
-        <v>0.5</v>
+        <v>99111.97448999999</v>
       </c>
       <c r="L4">
-        <v>99111.97448999999</v>
+        <v>98868.65459262705</v>
       </c>
       <c r="M4">
-        <v>98868.65459262705</v>
+        <v>2640815.199790784</v>
       </c>
       <c r="N4">
-        <v>2640815.199790784</v>
+        <v>26.64476430198888</v>
       </c>
       <c r="O4">
-        <v>26.64476430198888</v>
+        <v>586.9978031084094</v>
+      </c>
+      <c r="P4">
+        <v>22378.58830313726</v>
+      </c>
+      <c r="Q4">
+        <v>76490.0662894898</v>
+      </c>
+      <c r="R4">
+        <v>1169246.553817273</v>
+      </c>
+      <c r="S4">
+        <v>1471568.645973512</v>
+      </c>
+      <c r="T4">
+        <v>14.84753637031</v>
+      </c>
+      <c r="U4">
+        <v>11.79722793167888</v>
+      </c>
+      <c r="V4">
+        <v>55.7</v>
       </c>
     </row>
     <row r="5">
@@ -606,28 +704,49 @@
         <v>0.00524</v>
       </c>
       <c r="H5">
-        <v>0.99476</v>
+        <v>0.005937147678675741</v>
       </c>
       <c r="I5">
-        <v>0.005937147678675741</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
-        <v>0.5</v>
+        <v>98625.33469525409</v>
       </c>
       <c r="L5">
-        <v>98625.33469525409</v>
+        <v>98366.93631835253</v>
       </c>
       <c r="M5">
-        <v>98366.93631835253</v>
+        <v>2541946.545198157</v>
       </c>
       <c r="N5">
-        <v>2541946.545198157</v>
+        <v>25.77376850535015</v>
       </c>
       <c r="O5">
-        <v>25.77376850535015</v>
+        <v>584.0190276209512</v>
+      </c>
+      <c r="P5">
+        <v>22367.82276573887</v>
+      </c>
+      <c r="Q5">
+        <v>75999.11355261365</v>
+      </c>
+      <c r="R5">
+        <v>1146867.965514135</v>
+      </c>
+      <c r="S5">
+        <v>1395078.579684022</v>
+      </c>
+      <c r="T5">
+        <v>14.14523544071839</v>
+      </c>
+      <c r="U5">
+        <v>11.62853306463175</v>
+      </c>
+      <c r="V5">
+        <v>54.9</v>
       </c>
     </row>
     <row r="6">
@@ -655,28 +774,49 @@
         <v>0.00563</v>
       </c>
       <c r="H6">
-        <v>0.99437</v>
+        <v>0.005937147678675741</v>
       </c>
       <c r="I6">
-        <v>0.005937147678675741</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K6">
-        <v>0.5</v>
+        <v>98108.53794145095</v>
       </c>
       <c r="L6">
-        <v>98108.53794145095</v>
+        <v>97832.36240714576</v>
       </c>
       <c r="M6">
-        <v>97832.36240714576</v>
+        <v>2443579.608879805</v>
       </c>
       <c r="N6">
-        <v>2443579.608879805</v>
+        <v>24.90690066483388</v>
       </c>
       <c r="O6">
-        <v>24.90690066483388</v>
+        <v>580.8451833649492</v>
+      </c>
+      <c r="P6">
+        <v>22871.21328789418</v>
+      </c>
+      <c r="Q6">
+        <v>74961.14911925158</v>
+      </c>
+      <c r="R6">
+        <v>1124500.142748396</v>
+      </c>
+      <c r="S6">
+        <v>1319079.466131408</v>
+      </c>
+      <c r="T6">
+        <v>13.4451036964653</v>
+      </c>
+      <c r="U6">
+        <v>11.46179696836858</v>
+      </c>
+      <c r="V6">
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -704,28 +844,49 @@
         <v>0.00599</v>
       </c>
       <c r="H7">
-        <v>0.9940099999999999</v>
+        <v>0.008097066406678011</v>
       </c>
       <c r="I7">
-        <v>0.008097066406678011</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K7">
-        <v>0.5</v>
+        <v>97556.18687284058</v>
       </c>
       <c r="L7">
-        <v>97556.18687284058</v>
+        <v>97264.00609315642</v>
       </c>
       <c r="M7">
-        <v>97264.00609315642</v>
+        <v>2345747.246472659</v>
       </c>
       <c r="N7">
-        <v>2345747.246472659</v>
+        <v>24.04508951882486</v>
       </c>
       <c r="O7">
-        <v>24.04508951882486</v>
+        <v>787.5531163158222</v>
+      </c>
+      <c r="P7">
+        <v>22856.77183605516</v>
+      </c>
+      <c r="Q7">
+        <v>74407.23425710126</v>
+      </c>
+      <c r="R7">
+        <v>1101628.929460502</v>
+      </c>
+      <c r="S7">
+        <v>1244118.317012156</v>
+      </c>
+      <c r="T7">
+        <v>12.75283871676739</v>
+      </c>
+      <c r="U7">
+        <v>11.29225080205747</v>
+      </c>
+      <c r="V7">
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -753,28 +914,49 @@
         <v>0.00624</v>
       </c>
       <c r="H8">
-        <v>0.99376</v>
+        <v>0.008097066406678011</v>
       </c>
       <c r="I8">
-        <v>0.008097066406678011</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K8">
-        <v>0.5</v>
+        <v>96971.82531347226</v>
       </c>
       <c r="L8">
-        <v>96971.82531347226</v>
+        <v>96669.27321849423</v>
       </c>
       <c r="M8">
-        <v>96669.27321849423</v>
+        <v>2248483.240379503</v>
       </c>
       <c r="N8">
-        <v>2248483.240379503</v>
+        <v>23.18697449605624</v>
       </c>
       <c r="O8">
-        <v>23.18697449605624</v>
+        <v>782.7375247354479</v>
+      </c>
+      <c r="P8">
+        <v>23622.40182001278</v>
+      </c>
+      <c r="Q8">
+        <v>73046.87139848145</v>
+      </c>
+      <c r="R8">
+        <v>1078772.157624447</v>
+      </c>
+      <c r="S8">
+        <v>1169711.082755055</v>
+      </c>
+      <c r="T8">
+        <v>12.06238078920174</v>
+      </c>
+      <c r="U8">
+        <v>11.1245937068545</v>
+      </c>
+      <c r="V8">
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -802,28 +984,49 @@
         <v>0.00656</v>
       </c>
       <c r="H9">
-        <v>0.99344</v>
+        <v>0.008097066406678011</v>
       </c>
       <c r="I9">
-        <v>0.008097066406678011</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K9">
-        <v>0.5</v>
+        <v>96366.7211235162</v>
       </c>
       <c r="L9">
-        <v>96366.7211235162</v>
+        <v>96050.63827823105</v>
       </c>
       <c r="M9">
-        <v>96050.63827823105</v>
+        <v>2151813.967161008</v>
       </c>
       <c r="N9">
-        <v>2151813.967161008</v>
+        <v>22.32943014013066</v>
       </c>
       <c r="O9">
-        <v>22.32943014013066</v>
+        <v>777.7283965426457</v>
+      </c>
+      <c r="P9">
+        <v>23550.21168232633</v>
+      </c>
+      <c r="Q9">
+        <v>72500.42659590472</v>
+      </c>
+      <c r="R9">
+        <v>1055149.755804434</v>
+      </c>
+      <c r="S9">
+        <v>1096664.211356574</v>
+      </c>
+      <c r="T9">
+        <v>11.38011336871102</v>
+      </c>
+      <c r="U9">
+        <v>10.94931677141963</v>
+      </c>
+      <c r="V9">
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -851,28 +1054,49 @@
         <v>0.00773</v>
       </c>
       <c r="H10">
-        <v>0.99227</v>
+        <v>0.008097066406678011</v>
       </c>
       <c r="I10">
-        <v>0.008097066406678011</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K10">
-        <v>0.5</v>
+        <v>95734.55543294593</v>
       </c>
       <c r="L10">
-        <v>95734.55543294593</v>
+        <v>95364.54137619759</v>
       </c>
       <c r="M10">
-        <v>95364.54137619759</v>
+        <v>2055763.328882777</v>
       </c>
       <c r="N10">
-        <v>2055763.328882777</v>
+        <v>21.47357680396467</v>
       </c>
       <c r="O10">
-        <v>21.47357680396467</v>
+        <v>772.1730243654647</v>
+      </c>
+      <c r="P10">
+        <v>26517.15902893144</v>
+      </c>
+      <c r="Q10">
+        <v>68847.38234726616</v>
+      </c>
+      <c r="R10">
+        <v>1031599.544122108</v>
+      </c>
+      <c r="S10">
+        <v>1024163.784760669</v>
+      </c>
+      <c r="T10">
+        <v>10.69795310720391</v>
+      </c>
+      <c r="U10">
+        <v>10.77562369676075</v>
+      </c>
+      <c r="V10">
+        <v>49.8</v>
       </c>
     </row>
     <row r="11">
@@ -900,28 +1124,49 @@
         <v>0.0078</v>
       </c>
       <c r="H11">
-        <v>0.9922</v>
+        <v>0.008097066406678011</v>
       </c>
       <c r="I11">
-        <v>0.008097066406678011</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K11">
-        <v>0.5</v>
+        <v>94994.52731944925</v>
       </c>
       <c r="L11">
-        <v>94994.52731944925</v>
+        <v>94624.0486629034</v>
       </c>
       <c r="M11">
-        <v>94624.0486629034</v>
+        <v>1960398.787506579</v>
       </c>
       <c r="N11">
-        <v>1960398.787506579</v>
+        <v>20.63696554764799</v>
       </c>
       <c r="O11">
-        <v>20.63696554764799</v>
+        <v>766.1772056922605</v>
+      </c>
+      <c r="P11">
+        <v>28007.01024379518</v>
+      </c>
+      <c r="Q11">
+        <v>66617.03841910823</v>
+      </c>
+      <c r="R11">
+        <v>1005082.385093177</v>
+      </c>
+      <c r="S11">
+        <v>955316.4024134028</v>
+      </c>
+      <c r="T11">
+        <v>10.05654145949743</v>
+      </c>
+      <c r="U11">
+        <v>10.58042408815055</v>
+      </c>
+      <c r="V11">
+        <v>48.7</v>
       </c>
     </row>
     <row r="12">
@@ -949,28 +1194,49 @@
         <v>0.008789999999999999</v>
       </c>
       <c r="H12">
-        <v>0.99121</v>
+        <v>0.01351986088587562</v>
       </c>
       <c r="I12">
-        <v>0.01351986088587562</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K12">
-        <v>0.5</v>
+        <v>94253.57000635755</v>
       </c>
       <c r="L12">
-        <v>94253.57000635755</v>
+        <v>93839.32556617961</v>
       </c>
       <c r="M12">
-        <v>93839.32556617961</v>
+        <v>1865774.738843676</v>
       </c>
       <c r="N12">
-        <v>1865774.738843676</v>
+        <v>19.79526864306388</v>
       </c>
       <c r="O12">
-        <v>19.79526864306388</v>
+        <v>1268.69462727914</v>
+      </c>
+      <c r="P12">
+        <v>29576.64834505331</v>
+      </c>
+      <c r="Q12">
+        <v>64262.67722112631</v>
+      </c>
+      <c r="R12">
+        <v>977075.3748493814</v>
+      </c>
+      <c r="S12">
+        <v>888699.3639942947</v>
+      </c>
+      <c r="T12">
+        <v>9.428813825665706</v>
+      </c>
+      <c r="U12">
+        <v>10.36645481739817</v>
+      </c>
+      <c r="V12">
+        <v>47.6</v>
       </c>
     </row>
     <row r="13">
@@ -998,28 +1264,49 @@
         <v>0.00949</v>
       </c>
       <c r="H13">
-        <v>0.99051</v>
+        <v>0.01351986088587562</v>
       </c>
       <c r="I13">
-        <v>0.01351986088587562</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K13">
-        <v>0.5</v>
+        <v>93425.08112600166</v>
       </c>
       <c r="L13">
-        <v>93425.08112600166</v>
+        <v>92981.77911605878</v>
       </c>
       <c r="M13">
-        <v>92981.77911605878</v>
+        <v>1771935.413277496</v>
       </c>
       <c r="N13">
-        <v>1771935.413277496</v>
+        <v>18.96637810662108</v>
       </c>
       <c r="O13">
-        <v>18.96637810662108</v>
+        <v>1257.100718570329</v>
+      </c>
+      <c r="P13">
+        <v>30246.87951442885</v>
+      </c>
+      <c r="Q13">
+        <v>62734.89960162994</v>
+      </c>
+      <c r="R13">
+        <v>947498.7265043281</v>
+      </c>
+      <c r="S13">
+        <v>824436.6867731683</v>
+      </c>
+      <c r="T13">
+        <v>8.824575551197618</v>
+      </c>
+      <c r="U13">
+        <v>10.14180255542346</v>
+      </c>
+      <c r="V13">
+        <v>46.5</v>
       </c>
     </row>
     <row r="14">
@@ -1047,28 +1334,49 @@
         <v>0.0107</v>
       </c>
       <c r="H14">
-        <v>0.9893</v>
+        <v>0.01351986088587562</v>
       </c>
       <c r="I14">
-        <v>0.01351986088587562</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
-        <v>0.5</v>
+        <v>92538.47710611591</v>
       </c>
       <c r="L14">
-        <v>92538.47710611591</v>
+        <v>92043.39625359818</v>
       </c>
       <c r="M14">
-        <v>92043.39625359818</v>
+        <v>1678953.634161438</v>
       </c>
       <c r="N14">
-        <v>1678953.634161438</v>
+        <v>18.14330305259016</v>
       </c>
       <c r="O14">
-        <v>18.14330305259016</v>
+        <v>1244.413912812172</v>
+      </c>
+      <c r="P14">
+        <v>30042.11956273363</v>
+      </c>
+      <c r="Q14">
+        <v>62001.27669086456</v>
+      </c>
+      <c r="R14">
+        <v>917251.8469898993</v>
+      </c>
+      <c r="S14">
+        <v>761701.7871715383</v>
+      </c>
+      <c r="T14">
+        <v>8.231189997843579</v>
+      </c>
+      <c r="U14">
+        <v>9.912113054746582</v>
+      </c>
+      <c r="V14">
+        <v>45.4</v>
       </c>
     </row>
     <row r="15">
@@ -1096,28 +1404,49 @@
         <v>0.01095</v>
       </c>
       <c r="H15">
-        <v>0.98905</v>
+        <v>0.01351986088587562</v>
       </c>
       <c r="I15">
-        <v>0.01351986088587562</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K15">
-        <v>0.5</v>
+        <v>91548.31540108047</v>
       </c>
       <c r="L15">
-        <v>91548.31540108047</v>
+        <v>91047.08837425956</v>
       </c>
       <c r="M15">
-        <v>91047.08837425956</v>
+        <v>1586910.237907839</v>
       </c>
       <c r="N15">
-        <v>1586910.237907839</v>
+        <v>17.33412822459331</v>
       </c>
       <c r="O15">
-        <v>17.33412822459331</v>
+        <v>1230.943968884013</v>
+      </c>
+      <c r="P15">
+        <v>32883.64115792836</v>
+      </c>
+      <c r="Q15">
+        <v>58163.4472163312</v>
+      </c>
+      <c r="R15">
+        <v>887209.7274271656</v>
+      </c>
+      <c r="S15">
+        <v>699700.5104806738</v>
+      </c>
+      <c r="T15">
+        <v>7.642964345277464</v>
+      </c>
+      <c r="U15">
+        <v>9.691163879315846</v>
+      </c>
+      <c r="V15">
+        <v>44.1</v>
       </c>
     </row>
     <row r="16">
@@ -1145,28 +1474,49 @@
         <v>0.01291</v>
       </c>
       <c r="H16">
-        <v>0.98709</v>
+        <v>0.01351986088587562</v>
       </c>
       <c r="I16">
-        <v>0.01351986088587562</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K16">
-        <v>0.5</v>
+        <v>90545.86134743864</v>
       </c>
       <c r="L16">
-        <v>90545.86134743864</v>
+        <v>89961.38781244092</v>
       </c>
       <c r="M16">
-        <v>89961.38781244092</v>
+        <v>1495863.14953358</v>
       </c>
       <c r="N16">
-        <v>1495863.14953358</v>
+        <v>16.52050272948113</v>
       </c>
       <c r="O16">
-        <v>16.52050272948113</v>
+        <v>1216.265448324508</v>
+      </c>
+      <c r="P16">
+        <v>32095.03646267189</v>
+      </c>
+      <c r="Q16">
+        <v>57866.35134976904</v>
+      </c>
+      <c r="R16">
+        <v>854326.0862692373</v>
+      </c>
+      <c r="S16">
+        <v>641537.0632643426</v>
+      </c>
+      <c r="T16">
+        <v>7.085216858257768</v>
+      </c>
+      <c r="U16">
+        <v>9.435285871223362</v>
+      </c>
+      <c r="V16">
+        <v>42.9</v>
       </c>
     </row>
     <row r="17">
@@ -1194,28 +1544,49 @@
         <v>0.01398</v>
       </c>
       <c r="H17">
-        <v>0.98602</v>
+        <v>0.02935668261235946</v>
       </c>
       <c r="I17">
-        <v>0.02935668261235946</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K17">
-        <v>0.5</v>
+        <v>89376.9142774432</v>
       </c>
       <c r="L17">
-        <v>89376.9142774432</v>
+        <v>88752.16964664386</v>
       </c>
       <c r="M17">
-        <v>88752.16964664386</v>
+        <v>1405901.761721139</v>
       </c>
       <c r="N17">
-        <v>1405901.761721139</v>
+        <v>15.73003244838984</v>
       </c>
       <c r="O17">
-        <v>15.73003244838984</v>
+        <v>2605.469275474807</v>
+      </c>
+      <c r="P17">
+        <v>35471.01078565276</v>
+      </c>
+      <c r="Q17">
+        <v>53281.1588609911</v>
+      </c>
+      <c r="R17">
+        <v>822231.0498065654</v>
+      </c>
+      <c r="S17">
+        <v>583670.7119145736</v>
+      </c>
+      <c r="T17">
+        <v>6.530441519862131</v>
+      </c>
+      <c r="U17">
+        <v>9.199590928527712</v>
+      </c>
+      <c r="V17">
+        <v>41.5</v>
       </c>
     </row>
     <row r="18">
@@ -1243,28 +1614,49 @@
         <v>0.01644</v>
       </c>
       <c r="H18">
-        <v>0.98356</v>
+        <v>0.02935668261235946</v>
       </c>
       <c r="I18">
-        <v>0.02935668261235946</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K18">
-        <v>0.5</v>
+        <v>88127.42501584454</v>
       </c>
       <c r="L18">
-        <v>88127.42501584454</v>
+        <v>87403.01758221429</v>
       </c>
       <c r="M18">
-        <v>87403.01758221429</v>
+        <v>1317149.592074495</v>
       </c>
       <c r="N18">
-        <v>1317149.592074495</v>
+        <v>14.94596706800049</v>
       </c>
       <c r="O18">
-        <v>14.94596706800049</v>
+        <v>2565.862646523538</v>
+      </c>
+      <c r="P18">
+        <v>35757.1625689361</v>
+      </c>
+      <c r="Q18">
+        <v>51645.85501327819</v>
+      </c>
+      <c r="R18">
+        <v>786760.0390209126</v>
+      </c>
+      <c r="S18">
+        <v>530389.5530535824</v>
+      </c>
+      <c r="T18">
+        <v>6.01843924247444</v>
+      </c>
+      <c r="U18">
+        <v>8.927527825526051</v>
+      </c>
+      <c r="V18">
+        <v>40.3</v>
       </c>
     </row>
     <row r="19">
@@ -1292,28 +1684,49 @@
         <v>0.01774</v>
       </c>
       <c r="H19">
-        <v>0.98226</v>
+        <v>0.02935668261235946</v>
       </c>
       <c r="I19">
-        <v>0.02935668261235946</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K19">
-        <v>0.5</v>
+        <v>86678.61014858405</v>
       </c>
       <c r="L19">
-        <v>86678.61014858405</v>
+        <v>85909.77087656611</v>
       </c>
       <c r="M19">
-        <v>85909.77087656611</v>
+        <v>1229746.574492281</v>
       </c>
       <c r="N19">
-        <v>1229746.574492281</v>
+        <v>14.18742839074433</v>
       </c>
       <c r="O19">
-        <v>14.18742839074433</v>
+        <v>2522.025876923874</v>
+      </c>
+      <c r="P19">
+        <v>38018.48705248469</v>
+      </c>
+      <c r="Q19">
+        <v>47891.28382408142</v>
+      </c>
+      <c r="R19">
+        <v>751002.8764519766</v>
+      </c>
+      <c r="S19">
+        <v>478743.6980403043</v>
+      </c>
+      <c r="T19">
+        <v>5.523204597070075</v>
+      </c>
+      <c r="U19">
+        <v>8.664223793674255</v>
+      </c>
+      <c r="V19">
+        <v>38.9</v>
       </c>
     </row>
     <row r="20">
@@ -1341,28 +1754,49 @@
         <v>0.01997</v>
       </c>
       <c r="H20">
-        <v>0.98003</v>
+        <v>0.02935668261235946</v>
       </c>
       <c r="I20">
-        <v>0.02935668261235946</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K20">
-        <v>0.5</v>
+        <v>85140.93160454817</v>
       </c>
       <c r="L20">
-        <v>85140.93160454817</v>
+        <v>84290.79940247675</v>
       </c>
       <c r="M20">
-        <v>84290.79940247675</v>
+        <v>1143836.803615715</v>
       </c>
       <c r="N20">
-        <v>1143836.803615715</v>
+        <v>13.43462870395244</v>
       </c>
       <c r="O20">
-        <v>13.43462870395244</v>
+        <v>2474.498245200568</v>
+      </c>
+      <c r="P20">
+        <v>38577.28119122315</v>
+      </c>
+      <c r="Q20">
+        <v>45713.51821125361</v>
+      </c>
+      <c r="R20">
+        <v>712984.3893994918</v>
+      </c>
+      <c r="S20">
+        <v>430852.4142162229</v>
+      </c>
+      <c r="T20">
+        <v>5.060461591110979</v>
+      </c>
+      <c r="U20">
+        <v>8.374167112841466</v>
+      </c>
+      <c r="V20">
+        <v>37.7</v>
       </c>
     </row>
     <row r="21">
@@ -1390,28 +1824,49 @@
         <v>0.0229</v>
       </c>
       <c r="H21">
-        <v>0.9771</v>
+        <v>0.02935668261235946</v>
       </c>
       <c r="I21">
-        <v>0.02935668261235946</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K21">
-        <v>0.5</v>
+        <v>83440.66720040534</v>
       </c>
       <c r="L21">
-        <v>83440.66720040534</v>
+        <v>82485.2715609607</v>
       </c>
       <c r="M21">
-        <v>82485.2715609607</v>
+        <v>1059546.004213238</v>
       </c>
       <c r="N21">
-        <v>1059546.004213238</v>
+        <v>12.69819669188948</v>
       </c>
       <c r="O21">
-        <v>12.69819669188948</v>
+        <v>2421.493937409403</v>
+      </c>
+      <c r="P21">
+        <v>39865.76522011885</v>
+      </c>
+      <c r="Q21">
+        <v>42619.50634084185</v>
+      </c>
+      <c r="R21">
+        <v>674407.1082082686</v>
+      </c>
+      <c r="S21">
+        <v>385138.8960049693</v>
+      </c>
+      <c r="T21">
+        <v>4.615721672981761</v>
+      </c>
+      <c r="U21">
+        <v>8.082475018907717</v>
+      </c>
+      <c r="V21">
+        <v>36.3</v>
       </c>
     </row>
     <row r="22">
@@ -1439,28 +1894,49 @@
         <v>0.02641</v>
       </c>
       <c r="H22">
-        <v>0.97359</v>
+        <v>0.07089107865099309</v>
       </c>
       <c r="I22">
-        <v>0.07089107865099309</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K22">
-        <v>0.5</v>
+        <v>81529.87592151605</v>
       </c>
       <c r="L22">
-        <v>81529.87592151605</v>
+        <v>80453.27390997243</v>
       </c>
       <c r="M22">
-        <v>80453.27390997243</v>
+        <v>977060.7326522772</v>
       </c>
       <c r="N22">
-        <v>977060.7326522772</v>
+        <v>11.98408217366644</v>
       </c>
       <c r="O22">
-        <v>11.98408217366644</v>
+        <v>5703.419368481746</v>
+      </c>
+      <c r="P22">
+        <v>41905.79963877331</v>
+      </c>
+      <c r="Q22">
+        <v>38547.47427119912</v>
+      </c>
+      <c r="R22">
+        <v>634541.3429881498</v>
+      </c>
+      <c r="S22">
+        <v>342519.3896641274</v>
+      </c>
+      <c r="T22">
+        <v>4.201151857435064</v>
+      </c>
+      <c r="U22">
+        <v>7.782930316231377</v>
+      </c>
+      <c r="V22">
+        <v>35.1</v>
       </c>
     </row>
     <row r="23">
@@ -1488,28 +1964,49 @@
         <v>0.03067</v>
       </c>
       <c r="H23">
-        <v>0.96933</v>
+        <v>0.07089107865099309</v>
       </c>
       <c r="I23">
-        <v>0.07089107865099309</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>79376.67189842882</v>
       </c>
       <c r="L23">
-        <v>79376.67189842882</v>
+        <v>78159.43063486641</v>
       </c>
       <c r="M23">
-        <v>78159.43063486641</v>
+        <v>896607.4587423048</v>
       </c>
       <c r="N23">
-        <v>896607.4587423048</v>
+        <v>11.29560407734923</v>
       </c>
       <c r="O23">
-        <v>11.29560407734923</v>
+        <v>5540.806344453154</v>
+      </c>
+      <c r="P23">
+        <v>44162.6713889526</v>
+      </c>
+      <c r="Q23">
+        <v>33996.75924591381</v>
+      </c>
+      <c r="R23">
+        <v>592635.5433493765</v>
+      </c>
+      <c r="S23">
+        <v>303971.9153929283</v>
+      </c>
+      <c r="T23">
+        <v>3.82948677644099</v>
+      </c>
+      <c r="U23">
+        <v>7.466117300908243</v>
+      </c>
+      <c r="V23">
+        <v>33.9</v>
       </c>
     </row>
     <row r="24">
@@ -1537,28 +2034,49 @@
         <v>0.03469</v>
       </c>
       <c r="H24">
-        <v>0.96531</v>
+        <v>0.07089107865099309</v>
       </c>
       <c r="I24">
-        <v>0.07089107865099309</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
+        <v>76942.189371304</v>
       </c>
       <c r="L24">
-        <v>76942.189371304</v>
+        <v>75607.62709665875</v>
       </c>
       <c r="M24">
-        <v>75607.62709665875</v>
+        <v>818448.0281074385</v>
       </c>
       <c r="N24">
-        <v>818448.0281074385</v>
+        <v>10.63718143186452</v>
       </c>
       <c r="O24">
-        <v>10.63718143186452</v>
+        <v>5359.906239124191</v>
+      </c>
+      <c r="P24">
+        <v>43436.9344196537</v>
+      </c>
+      <c r="Q24">
+        <v>32170.69267700505</v>
+      </c>
+      <c r="R24">
+        <v>548472.8719604239</v>
+      </c>
+      <c r="S24">
+        <v>269975.1561470145</v>
+      </c>
+      <c r="T24">
+        <v>3.508805225754378</v>
+      </c>
+      <c r="U24">
+        <v>7.128376206110139</v>
+      </c>
+      <c r="V24">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -1586,28 +2104,49 @@
         <v>0.04101</v>
       </c>
       <c r="H25">
-        <v>0.95899</v>
+        <v>0.07089107865099309</v>
       </c>
       <c r="I25">
-        <v>0.07089107865099309</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>74273.06482201348</v>
       </c>
       <c r="L25">
-        <v>74273.06482201348</v>
+        <v>72750.09562783809</v>
       </c>
       <c r="M25">
-        <v>72750.09562783809</v>
+        <v>742840.4010107797</v>
       </c>
       <c r="N25">
-        <v>742840.4010107797</v>
+        <v>10.00147769303593</v>
       </c>
       <c r="O25">
-        <v>10.00147769303593</v>
+        <v>5157.332751020339</v>
+      </c>
+      <c r="P25">
+        <v>45083.44022006069</v>
+      </c>
+      <c r="Q25">
+        <v>27666.6554077774</v>
+      </c>
+      <c r="R25">
+        <v>505035.9375407703</v>
+      </c>
+      <c r="S25">
+        <v>237804.4634700094</v>
+      </c>
+      <c r="T25">
+        <v>3.20175913084884</v>
+      </c>
+      <c r="U25">
+        <v>6.799718562187094</v>
+      </c>
+      <c r="V25">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -1635,28 +2174,49 @@
         <v>0.04701</v>
       </c>
       <c r="H26">
-        <v>0.95299</v>
+        <v>0.07089107865099309</v>
       </c>
       <c r="I26">
-        <v>0.07089107865099309</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>71227.12643366271</v>
       </c>
       <c r="L26">
-        <v>71227.12643366271</v>
+        <v>69552.93282683947</v>
       </c>
       <c r="M26">
-        <v>69552.93282683947</v>
+        <v>670090.3053829416</v>
       </c>
       <c r="N26">
-        <v>670090.3053829416</v>
+        <v>9.407796424400603</v>
       </c>
       <c r="O26">
-        <v>9.407796424400603</v>
+        <v>4930.682431434716</v>
+      </c>
+      <c r="P26">
+        <v>42907.05709023358</v>
+      </c>
+      <c r="Q26">
+        <v>26645.87573660589</v>
+      </c>
+      <c r="R26">
+        <v>459952.4973207096</v>
+      </c>
+      <c r="S26">
+        <v>210137.808062232</v>
+      </c>
+      <c r="T26">
+        <v>2.950249695359304</v>
+      </c>
+      <c r="U26">
+        <v>6.457546729041298</v>
+      </c>
+      <c r="V26">
+        <v>31.4</v>
       </c>
     </row>
     <row r="27">
@@ -1684,28 +2244,49 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>0.1665905326773596</v>
       </c>
       <c r="I27">
-        <v>0.1665905326773596</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>67878.73922001623</v>
       </c>
       <c r="L27">
-        <v>67878.73922001623</v>
+        <v>600537.3725561021</v>
       </c>
       <c r="M27">
         <v>600537.3725561021</v>
       </c>
       <c r="N27">
-        <v>600537.3725561021</v>
+        <v>8.847208705653365</v>
       </c>
       <c r="O27">
-        <v>8.847208705653365</v>
+        <v>100043.840786783</v>
+      </c>
+      <c r="P27">
+        <v>417045.440230476</v>
+      </c>
+      <c r="Q27">
+        <v>183491.9323256261</v>
+      </c>
+      <c r="R27">
+        <v>417045.440230476</v>
+      </c>
+      <c r="S27">
+        <v>183491.9323256261</v>
+      </c>
+      <c r="T27">
+        <v>2.703231297960196</v>
+      </c>
+      <c r="U27">
+        <v>6.143977407693169</v>
+      </c>
+      <c r="V27">
+        <v>30.6</v>
       </c>
     </row>
   </sheetData>
